--- a/wwwroot/ErrorReports/ErrorLog.xlsx
+++ b/wwwroot/ErrorReports/ErrorLog.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Timestamp</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>2025-10-17 12:43:00</t>
+  </si>
+  <si>
+    <t>2026-02-11 23:42:15</t>
+  </si>
+  <si>
+    <t>NoteService/GetUserNotes</t>
+  </si>
+  <si>
+    <t>28P01: password authentication failed for user "postgres"</t>
+  </si>
+  <si>
+    <t>2026-02-11 23:43:04</t>
   </si>
 </sst>
 </file>
@@ -444,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -544,6 +556,40 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
